--- a/CMSBenz/target/test-classes/CMSBenz/Data.xlsx
+++ b/CMSBenz/target/test-classes/CMSBenz/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15870" windowHeight="4890"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="23040" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,13 +74,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -376,9 +389,11 @@
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,7 +401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -394,13 +409,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CMSBenz/target/test-classes/CMSBenz/Data.xlsx
+++ b/CMSBenz/target/test-classes/CMSBenz/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="23040" windowHeight="6840"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="22620" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -382,7 +381,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
